--- a/data/trans_camb/P40_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,89</t>
+          <t>-13,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-12,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,07</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-7,88</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-9,65</t>
+          <t>-8,38</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-10,34</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-9,85</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-10,29</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-5,69</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>10,77</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 7,1</t>
+          <t>-9,78; 7,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,97; -5,96</t>
+          <t>-20,86; -6,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,62; -4,91</t>
+          <t>-19,4; -5,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 11,23</t>
+          <t>-12,33; 6,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 6,24</t>
+          <t>-1,85; 22,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 1,06</t>
+          <t>-5,73; 19,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,04; -0,83</t>
+          <t>-12,19; 6,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 8,42</t>
+          <t>-15,44; 1,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 4,53</t>
+          <t>-16,39; -0,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-15,15; -4,14</t>
+          <t>-17,36; -0,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -4,88</t>
+          <t>1,9; 18,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 7,09</t>
+          <t>-6,07; 12,78</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,26; 4,14</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-15,44; -4,48</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-15,76; -4,58</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-12,1; 0,25</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 18,3</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 12,36</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,92%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-67,71%</t>
+          <t>-71,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-66,05%</t>
+          <t>-66,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>-14,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,31%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,47%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-44,12%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,49%</t>
+          <t>-33,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>-43,07%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-51,62%</t>
+          <t>-45,78%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-55,33%</t>
+          <t>107,23%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-13,85%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-52,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-55,05%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-30,45%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>82,83%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>26,87%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,02; 46,77</t>
+          <t>-44,07; 51,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,75; -34,48</t>
+          <t>-86,99; -39,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-85,91; -28,76</t>
+          <t>-84,16; -27,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 71,61</t>
+          <t>-55,8; 41,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,55; 50,32</t>
+          <t>-10,61; 183,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,66; 9,76</t>
+          <t>-22,52; 137,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,07; -3,27</t>
+          <t>-53,09; 48,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,91; 62,86</t>
+          <t>-63,56; 14,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 29,8</t>
+          <t>-69,93; 3,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-69,32; -27,7</t>
+          <t>-71,66; 1,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-71,9; -29,46</t>
+          <t>9,46; 263,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 44,78</t>
+          <t>-27,22; 104,53</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-41,88; 25,56</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-69,2; -26,75</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-70,91; -27,69</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-56,5; 1,54</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 191,01</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-13,3; 83,08</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>-7,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,72</t>
+          <t>-11,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>-16,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>11,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,63</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-12,75</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-8,17</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>8,18</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-6,24</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-8,08</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-14,75</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10,6</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,06</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 10,1</t>
+          <t>-15,02; 10,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 3,35</t>
+          <t>-18,29; 2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,72; -2,8</t>
+          <t>-21,42; -1,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 3,25</t>
+          <t>-27,84; -7,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 14,66</t>
+          <t>2,22; 21,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 3,53</t>
+          <t>-9,98; 12,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 4,53</t>
+          <t>-4,14; 15,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -3,66</t>
+          <t>-12,95; 3,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 9,2</t>
+          <t>-12,78; 4,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 0,3</t>
+          <t>-20,73; -3,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; -1,63</t>
+          <t>-0,03; 17,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-16,48; -2,2</t>
+          <t>-0,3; 17,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 10,11</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-13,98; 0,27</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-15,22; -1,43</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-21,74; -8,31</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 17,56</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 12,25</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-28,36%</t>
+          <t>-28,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-46,55%</t>
+          <t>-45,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-27,53%</t>
+          <t>-65,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>132,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,65%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,86%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-42,17%</t>
+          <t>-18,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>-15,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-23,55%</t>
+          <t>-46,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-31,02%</t>
+          <t>62,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-34,94%</t>
+          <t>51,31%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-23,69%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-30,67%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-56,03%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>91,56%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>29,53%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 49,29</t>
+          <t>-47,9; 53,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 20,73</t>
+          <t>-57,66; 12,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,54; -12,54</t>
+          <t>-67,8; -5,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 21,05</t>
+          <t>-84,3; -37,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 62,61</t>
+          <t>15,29; 380,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 15,56</t>
+          <t>-41,48; 105,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 19,38</t>
+          <t>-13,37; 63,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,62; -15,19</t>
+          <t>-39,77; 14,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 38,26</t>
+          <t>-40,83; 16,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-43,64; 1,53</t>
+          <t>-67,38; -15,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-50,04; -7,17</t>
+          <t>-1,04; 154,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-53,87; -8,21</t>
+          <t>-3,13; 145,15</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-21,01; 44,29</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-44,71; 1,2</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-49,44; -4,11</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-71,25; -34,63</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>29,44; 195,22</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 92,53</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,05</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-11,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>15,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,9</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>-7,48</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-8,17</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-8,11</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-9,43</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>10,14</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>5,31</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 12,66</t>
+          <t>-8,84; 6,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,12; -0,8</t>
+          <t>-14,81; -1,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,22; -0,02</t>
+          <t>-13,76; 1,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 2,82</t>
+          <t>-18,27; -5,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 3,32</t>
+          <t>8,18; 23,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -2,91</t>
+          <t>-0,13; 16,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -3,62</t>
+          <t>-9,82; 4,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 1,79</t>
+          <t>-15,28; -3,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 6,11</t>
+          <t>-15,63; -3,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -3,56</t>
+          <t>-13,42; -0,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-12,57; -3,76</t>
+          <t>-1,4; 12,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 0,43</t>
+          <t>-4,43; 10,45</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 3,74</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-12,7; -3,37</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; -3,03</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; -4,67</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 15,65</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 11,43</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>-8,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,93%</t>
+          <t>-41,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,83%</t>
+          <t>-37,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-22,22%</t>
+          <t>-65,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,92%</t>
+          <t>249,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,76%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-37,39%</t>
+          <t>-10,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-18,59%</t>
+          <t>-35,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-5,44%</t>
+          <t>-37,6%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-37,5%</t>
+          <t>-29,23%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-38,26%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-21,19%</t>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-9,64%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-37,62%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-37,35%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-43,44%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>82,62%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>31,08%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 92,15</t>
+          <t>-43,91; 45,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,23; 0,28</t>
+          <t>-64,43; -3,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,31; 2,63</t>
+          <t>-62,32; 11,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,45; 20,62</t>
+          <t>-84,19; -37,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,88; 15,47</t>
+          <t>80,25; 641,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,99; -13,7</t>
+          <t>-3,95; 161,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-54,39; -16,86</t>
+          <t>-34,93; 18,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 7,56</t>
+          <t>-52,33; -13,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 32,07</t>
+          <t>-53,96; -17,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-52,11; -19,34</t>
+          <t>-46,44; -3,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-51,96; -18,38</t>
+          <t>-7,26; 79,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 2,2</t>
+          <t>-18,72; 61,37</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-30,49; 19,56</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-52,33; -17,87</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-51,64; -14,61</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-58,54; -24,78</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>31,29; 146,3</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 78,52</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,09</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,94</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-9,44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>-6,77</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-7,62</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-7,56</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-7,5</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 3,65</t>
+          <t>-8,15; 3,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 0,86</t>
+          <t>-10,54; 1,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 2,23</t>
+          <t>-10,38; 3,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 10,6</t>
+          <t>-6,78; 5,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 2,77</t>
+          <t>-2,88; 11,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,03; -3,32</t>
+          <t>-8,66; 7,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -4,17</t>
+          <t>-11,51; 1,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 5,07</t>
+          <t>-15,35; -2,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 0,96</t>
+          <t>-15,9; -3,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-12,5; -3,61</t>
+          <t>-13,08; -0,14</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-12,2; -2,89</t>
+          <t>-3,56; 10,65</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 6,09</t>
+          <t>-10,23; 6,3</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 1,29</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-12,22; -3,2</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-12,12; -2,78</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; -0,01</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 8,5</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 4,63</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,55%</t>
+          <t>-15,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-34,05%</t>
+          <t>-34,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-31,28%</t>
+          <t>-30,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>-8,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,77%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-37,04%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-36,5%</t>
+          <t>-17,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>-34,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-16,84%</t>
+          <t>-36,08%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-36,44%</t>
+          <t>-24,83%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-35,2%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>-6,76%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-17,08%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-34,96%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-34,69%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-20,08%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,77; 29,64</t>
+          <t>-45,78; 32,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,45; 9,41</t>
+          <t>-58,56; 17,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,58; 18,13</t>
+          <t>-58,31; 32,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 82,64</t>
+          <t>-37,38; 47,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 12,16</t>
+          <t>-15,82; 107,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,57; -14,01</t>
+          <t>-38,93; 51,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-52,19; -16,59</t>
+          <t>-38,59; 7,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 22,04</t>
+          <t>-51,71; -11,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 5,13</t>
+          <t>-51,34; -13,7</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-51,79; -16,81</t>
+          <t>-43,58; -0,97</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-51,4; -15,01</t>
+          <t>-14,57; 61,72</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 31,7</t>
+          <t>-35,0; 29,07</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-32,99; 7,18</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-51,2; -15,75</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-50,66; -14,67</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-37,43; 0,73</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 55,72</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-26,65; 24,47</t>
         </is>
       </c>
     </row>
@@ -1760,7 +2288,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1770,52 +2298,82 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-12,97</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>12,48</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-5,54</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>7,47</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-6,1</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-6,46</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-8,42</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>9,44</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 9,21</t>
+          <t>-10,87; 8,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 2,52</t>
+          <t>-14,96; 1,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 0,88</t>
+          <t>-15,7; 0,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 11,17</t>
+          <t>-22,02; -6,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 6,3</t>
+          <t>5,9; 19,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 1,49</t>
+          <t>-13,09; 5,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 1,14</t>
+          <t>-7,16; 7,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 1,89</t>
+          <t>-13,22; 0,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 5,8</t>
+          <t>-11,77; 1,05</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -0,46</t>
+          <t>-11,52; 3,45</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-12,29; -0,96</t>
+          <t>-1,52; 14,32</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 4,41</t>
+          <t>0,21; 15,38</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 4,79</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-11,31; -1,2</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; -1,45</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-14,02; -2,58</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>4,08; 14,61</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 8,26</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>-7,28%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-28,48%</t>
+          <t>-28,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-35,12%</t>
+          <t>-34,42%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>-60,71%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>148,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-30,05%</t>
+          <t>-12,3%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-28,17%</t>
+          <t>-3,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-25,15%</t>
+          <t>-31,05%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>-28,25%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-29,27%</t>
+          <t>-20,21%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-31,81%</t>
+          <t>41,36%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>-7,12%</t>
+          <t>50,7%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-5,3%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-29,73%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-31,48%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-41,02%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>78,01%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 58,02</t>
+          <t>-41,43; 51,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,8; 16,63</t>
+          <t>-56,34; 10,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,64; 7,54</t>
+          <t>-59,9; 7,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 69,08</t>
+          <t>-78,07; -34,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 39,18</t>
+          <t>52,01; 348,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,58; 10,69</t>
+          <t>-43,79; 31,39</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-51,1; 8,23</t>
+          <t>-31,91; 45,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 12,43</t>
+          <t>-57,1; 0,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 33,27</t>
+          <t>-51,85; 6,2</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-48,74; -2,38</t>
+          <t>-48,63; 22,67</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-50,5; -4,2</t>
+          <t>-9,71; 115,4</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 24,7</t>
+          <t>-0,06; 135,69</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-29,61; 25,78</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-47,07; -5,37</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-50,97; -6,19</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-58,57; -13,88</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>28,27; 148,83</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-12,9; 50,72</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,8</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,68</t>
+          <t>0,0; 8,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,02</t>
+          <t>0,0; 10,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,27</t>
+          <t>0,0; 6,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 1,05</t>
+          <t>-4,09; 2,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,02</t>
+          <t>-4,68; 1,82</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 0,73</t>
+          <t>-4,99; 0,82</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,96</t>
+          <t>-5,02; 0,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,88</t>
+          <t>-5,22; 0,62</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,06</t>
+          <t>-2,85; 4,17</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,28</t>
+          <t>-4,81; 1,97</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,96</t>
+          <t>-2,92; 2,46</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 0,91</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 2,03</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 2,92</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 3,16</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 1,83</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 1,58</t>
         </is>
       </c>
     </row>
@@ -2192,42 +2900,72 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-49,98%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-50,09%</t>
+          <t>-28,1%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-56,73%</t>
+          <t>-48,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>-53,48%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-21,45%</t>
+          <t>-57,92%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>54,43%</t>
+          <t>-24,52%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>114,13%</t>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-17,62%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>45,51%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>93,91%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-5,85%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-14,64%</t>
         </is>
       </c>
     </row>
@@ -2265,37 +3003,67 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 321,22</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="M27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr">
+      <c r="N27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-84,57; —</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-81,79; 234,07</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-6,14</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-6,45</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-6,82</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,01</t>
+          <t>-5,25; 2,04</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -3,38</t>
+          <t>-9,18; -3,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -3,9</t>
+          <t>-9,47; -3,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 2,68</t>
+          <t>-10,83; -4,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,52</t>
+          <t>6,1; 12,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -3,44</t>
+          <t>-1,43; 6,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,79; -3,54</t>
+          <t>-4,22; 1,71</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -1,35</t>
+          <t>-8,61; -3,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,54</t>
+          <t>-8,97; -3,49</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-8,33; -4,07</t>
+          <t>-9,34; -3,57</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -4,35</t>
+          <t>1,73; 7,84</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,13</t>
+          <t>-0,13; 6,4</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 1,09</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; -4,27</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; -4,36</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; -4,46</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 9,36</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 4,93</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,71%</t>
+          <t>-9,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-37,21%</t>
+          <t>-38,17%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-41,26%</t>
+          <t>-40,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-2,9%</t>
+          <t>-45,56%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-6,69%</t>
+          <t>102,8%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-31,07%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>-6,29%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-21,34%</t>
+          <t>-30,72%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-33,8%</t>
+          <t>-31,64%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-36,07%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>-13,09%</t>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-7,78%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-34,03%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-35,75%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-37,82%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>63,32%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 20,57</t>
+          <t>-29,46; 13,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-50,54; -21,92</t>
+          <t>-50,46; -21,6</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-55,46; -25,68</t>
+          <t>-52,79; -21,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 18,28</t>
+          <t>-58,77; -29,97</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 8,91</t>
+          <t>57,87; 169,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -18,81</t>
+          <t>-8,12; 44,01</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-41,88; -19,26</t>
+          <t>-20,19; 9,54</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-33,55; -7,13</t>
+          <t>-40,89; -17,26</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 8,96</t>
+          <t>-42,63; -19,36</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-43,38; -24,1</t>
+          <t>-43,5; -18,73</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-43,78; -25,94</t>
+          <t>11,23; 63,73</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 0,89</t>
+          <t>-0,93; 45,06</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-19,51; 6,71</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-42,66; -25,25</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-43,98; -25,31</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-45,92; -26,01</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>41,22; 90,21</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 32,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
